--- a/medicine/Mort/Cimetière_monumental_de_Staglieno/Cimetière_monumental_de_Staglieno.xlsx
+++ b/medicine/Mort/Cimetière_monumental_de_Staglieno/Cimetière_monumental_de_Staglieno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_monumental_de_Staglieno</t>
+          <t>Cimetière_monumental_de_Staglieno</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière monumental de Staglieno, en italien le cimitero monumentale di Staglieno, est la plus grande nécropole de Gênes et un des plus grands cimetières d'Europe.
 Il se situe dans le  Val Bisagno, territoire de la municipalité de Gênes (Municipio IV - Genova Media Val Bisagno) qui  comprend le quartier de  Staglieno.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_monumental_de_Staglieno</t>
+          <t>Cimetière_monumental_de_Staglieno</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son projet remonte à 1835 à la suite du climat créé par l'édit du gouvernement de Napoléon, signé à Saint-Cloud et entré en vigueur le 2 juin 1804, dans lequel on interdisait à l'avenir les sépultures dans les églises et dans les centres habités, au profit de cimetières nouveaux installés en dehors du centre des villes.
 Le projet original de l'architecte Carlo Barabino fut approuvé par la Commune de Gênes. Barabino toutefois mourut la même année à cause de l'épidémie de choléra qui avait frappé la ville et le projet fut transmis à son collaborateur et élève Giovanni Battista Resasco (la place de l'entrée secondaire du Camposanto rappelle aujourd'hui son nom).
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_monumental_de_Staglieno</t>
+          <t>Cimetière_monumental_de_Staglieno</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Tombeaux remarquables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le long de la colline qui  domine se trouvent, le long du chemin, les chapelles monumentales en style gothique, byzantine, néo-égyptienne, Liberty, mésopotamien ou néoclassique. Le cimetière comporte les tombeaux de personnages célèbres comme Giuseppe Mazzini, Gilberto Govi, Nino Bixio, Fabrizio De André, Stefano Canzio, Ferruccio Parri.
 Carlo Rubatto, sculpteur néoclassique, produisit de nombreuses statues pour les tombeaux.
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_monumental_de_Staglieno</t>
+          <t>Cimetière_monumental_de_Staglieno</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Personnalités reposant au cimetière</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Giuseppe Mazzini (1805-1872), père du Risorgimento
 Nino Bixio (1821-1873), militaire et explorateur garibaldien
@@ -616,7 +634,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_monumental_de_Staglieno</t>
+          <t>Cimetière_monumental_de_Staglieno</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -634,7 +652,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(it) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en italien intitulé « Cimitero monumentale di Staglieno » (voir la liste des auteurs).</t>
         </is>
